--- a/Code/Results/Cases/Case_3_121/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_121/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8592164034453731</v>
+        <v>0.3757192674132455</v>
       </c>
       <c r="C2">
-        <v>0.1003669190390895</v>
+        <v>0.02930152855844881</v>
       </c>
       <c r="D2">
-        <v>0.2074863493594563</v>
+        <v>0.2420222888857637</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8393503459406233</v>
+        <v>1.586398145579913</v>
       </c>
       <c r="G2">
-        <v>0.0008147722433171411</v>
+        <v>0.002472051365649399</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1949519885653856</v>
+        <v>0.2973570291902163</v>
       </c>
       <c r="K2">
-        <v>0.864037052302649</v>
+        <v>0.328076540996932</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4029342763911927</v>
+        <v>0.2898795205865525</v>
       </c>
       <c r="N2">
-        <v>0.9002663989264397</v>
+        <v>1.891113143744201</v>
       </c>
       <c r="O2">
-        <v>1.856970192874456</v>
+        <v>3.731092495176853</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7462987198148028</v>
+        <v>0.3437020739106345</v>
       </c>
       <c r="C3">
-        <v>0.08905408524728387</v>
+        <v>0.02575381342566629</v>
       </c>
       <c r="D3">
-        <v>0.1854392856874369</v>
+        <v>0.2372607916900762</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8093347279304552</v>
+        <v>1.588810574898332</v>
       </c>
       <c r="G3">
-        <v>0.0008183790111230126</v>
+        <v>0.002474450459123423</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1807378526566126</v>
+        <v>0.2955377707892382</v>
       </c>
       <c r="K3">
-        <v>0.7506707491204736</v>
+        <v>0.2951558770172937</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3528976765485439</v>
+        <v>0.2772209927184832</v>
       </c>
       <c r="N3">
-        <v>0.9436993083072265</v>
+        <v>1.909769330211154</v>
       </c>
       <c r="O3">
-        <v>1.8238353616957</v>
+        <v>3.746912369428998</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6771953478775004</v>
+        <v>0.3241446689584393</v>
       </c>
       <c r="C4">
-        <v>0.08210061241575772</v>
+        <v>0.02356485319731405</v>
       </c>
       <c r="D4">
-        <v>0.1720558157471004</v>
+        <v>0.2344398604698057</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7922631229782695</v>
+        <v>1.591045768473869</v>
       </c>
       <c r="G4">
-        <v>0.0008206691914428916</v>
+        <v>0.00247600309385297</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1722781049392665</v>
+        <v>0.2945670943208114</v>
       </c>
       <c r="K4">
-        <v>0.6812113982779238</v>
+        <v>0.2749924140743332</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3224094981666568</v>
+        <v>0.2695754061435309</v>
       </c>
       <c r="N4">
-        <v>0.9714970357790973</v>
+        <v>1.921808005209301</v>
       </c>
       <c r="O4">
-        <v>1.806798511609415</v>
+        <v>3.758406694073443</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.649081826039577</v>
+        <v>0.3162007860394738</v>
       </c>
       <c r="C5">
-        <v>0.07926431611372209</v>
+        <v>0.02267020060249081</v>
       </c>
       <c r="D5">
-        <v>0.1666377656994342</v>
+        <v>0.2333162290993585</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7856326027329388</v>
+        <v>1.59214637645308</v>
       </c>
       <c r="G5">
-        <v>0.0008216217744815826</v>
+        <v>0.002476655875273182</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1688941423936754</v>
+        <v>0.2942083735783783</v>
       </c>
       <c r="K5">
-        <v>0.6529330611068076</v>
+        <v>0.2667886434580993</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3100380908171374</v>
+        <v>0.2664918361548061</v>
       </c>
       <c r="N5">
-        <v>0.9831026638568963</v>
+        <v>1.926860653544052</v>
       </c>
       <c r="O5">
-        <v>1.800652811387835</v>
+        <v>3.763538740710402</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6444161104195416</v>
+        <v>0.3148832890013011</v>
       </c>
       <c r="C6">
-        <v>0.07879316431467487</v>
+        <v>0.02252148646562091</v>
       </c>
       <c r="D6">
-        <v>0.1657401874751656</v>
+        <v>0.2331312197529201</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.78455088631042</v>
+        <v>1.592340596659724</v>
       </c>
       <c r="G6">
-        <v>0.0008217811254217558</v>
+        <v>0.002476765482952777</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1683359603858108</v>
+        <v>0.2941510342330602</v>
       </c>
       <c r="K6">
-        <v>0.6482387994817742</v>
+        <v>0.265427212037153</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3079868402933954</v>
+        <v>0.2659817539759786</v>
       </c>
       <c r="N6">
-        <v>0.9850463724269316</v>
+        <v>1.927708508193244</v>
       </c>
       <c r="O6">
-        <v>1.799679467747339</v>
+        <v>3.764417978278843</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6768160240262375</v>
+        <v>0.3240374294363164</v>
       </c>
       <c r="C7">
-        <v>0.08206237315137344</v>
+        <v>0.02355279820453404</v>
       </c>
       <c r="D7">
-        <v>0.1719826045627428</v>
+        <v>0.2344246016852907</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7921723998750707</v>
+        <v>1.591059843161013</v>
       </c>
       <c r="G7">
-        <v>0.0008206819596971929</v>
+        <v>0.002476011815953914</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.17223221571453</v>
+        <v>0.2945621072848894</v>
       </c>
       <c r="K7">
-        <v>0.6808299309905834</v>
+        <v>0.2748817219152357</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3222424473248893</v>
+        <v>0.2695336899521408</v>
       </c>
       <c r="N7">
-        <v>0.971652436463633</v>
+        <v>1.921875552624334</v>
       </c>
       <c r="O7">
-        <v>1.806712446608145</v>
+        <v>3.758474092380766</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.820228240632531</v>
+        <v>0.3646589781525904</v>
       </c>
       <c r="C8">
-        <v>0.09646724635007331</v>
+        <v>0.02808051201088801</v>
       </c>
       <c r="D8">
-        <v>0.1998509381145084</v>
+        <v>0.2403592839521167</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8287096980501971</v>
+        <v>1.587073561752497</v>
       </c>
       <c r="G8">
-        <v>0.0008160003506327641</v>
+        <v>0.002472862091322307</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1899929743372439</v>
+        <v>0.2966993928219139</v>
       </c>
       <c r="K8">
-        <v>0.8249112206570999</v>
+        <v>0.3167153821872262</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3856291480820815</v>
+        <v>0.2854886483864902</v>
       </c>
       <c r="N8">
-        <v>0.9150037387289824</v>
+        <v>1.897424659926056</v>
       </c>
       <c r="O8">
-        <v>1.844837187297685</v>
+        <v>3.736177688758573</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.103801449320258</v>
+        <v>0.4451056395042201</v>
       </c>
       <c r="C9">
-        <v>0.1246993016858653</v>
+        <v>0.03687331581217279</v>
       </c>
       <c r="D9">
-        <v>0.2558534787561371</v>
+        <v>0.2528076325190369</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9118616487411941</v>
+        <v>1.585233192396188</v>
       </c>
       <c r="G9">
-        <v>0.0008074052275473231</v>
+        <v>0.002467314249548926</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2271329586194071</v>
+        <v>0.3020508801079558</v>
       </c>
       <c r="K9">
-        <v>1.109134743008383</v>
+        <v>0.3991321295707166</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5120918090641027</v>
+        <v>0.3177761352391713</v>
       </c>
       <c r="N9">
-        <v>0.8131732642618381</v>
+        <v>1.854106567357467</v>
       </c>
       <c r="O9">
-        <v>1.94751048435694</v>
+        <v>3.706578236069276</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.314368965299394</v>
+        <v>0.5046750870809262</v>
       </c>
       <c r="C10">
-        <v>0.1454968783338302</v>
+        <v>0.04327947746035932</v>
       </c>
       <c r="D10">
-        <v>0.2980247634974518</v>
+        <v>0.2624433132386059</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9810384168775386</v>
+        <v>1.587519419146417</v>
       </c>
       <c r="G10">
-        <v>0.0008014261056484892</v>
+        <v>0.002463617796766438</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2561051859348424</v>
+        <v>0.3066894704071075</v>
       </c>
       <c r="K10">
-        <v>1.319744501510741</v>
+        <v>0.4599014553843404</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6067729802824999</v>
+        <v>0.3421015858874554</v>
       </c>
       <c r="N10">
-        <v>0.7444279654461639</v>
+        <v>1.825100404069672</v>
       </c>
       <c r="O10">
-        <v>2.042410761449531</v>
+        <v>3.693436459953773</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.410835513804074</v>
+        <v>0.5318729635109207</v>
       </c>
       <c r="C11">
-        <v>0.1549860815543269</v>
+        <v>0.04618182493973677</v>
       </c>
       <c r="D11">
-        <v>0.3174801766260913</v>
+        <v>0.2669323866935827</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.014518590180018</v>
+        <v>1.589348569943468</v>
       </c>
       <c r="G11">
-        <v>0.0007987739951095252</v>
+        <v>0.002462017800038155</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2697170602035328</v>
+        <v>0.3089531229355487</v>
       </c>
       <c r="K11">
-        <v>1.416128536442045</v>
+        <v>0.4875915403929127</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6503375121673187</v>
+        <v>0.3532979264869169</v>
       </c>
       <c r="N11">
-        <v>0.7145727383358107</v>
+        <v>1.81251637930111</v>
       </c>
       <c r="O11">
-        <v>2.090391434612798</v>
+        <v>3.689325586528696</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.447479048538014</v>
+        <v>0.5421860114604158</v>
       </c>
       <c r="C12">
-        <v>0.158584851465605</v>
+        <v>0.04727912763763698</v>
       </c>
       <c r="D12">
-        <v>0.3248906444429878</v>
+        <v>0.2686473941411975</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.027508496275487</v>
+        <v>1.590154580148592</v>
       </c>
       <c r="G12">
-        <v>0.0007977790344198887</v>
+        <v>0.002461423587654051</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2749395046656389</v>
+        <v>0.309832365434886</v>
       </c>
       <c r="K12">
-        <v>1.452725591369557</v>
+        <v>0.4980832725769915</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6669146708442639</v>
+        <v>0.3575563150234018</v>
       </c>
       <c r="N12">
-        <v>0.7034803418433366</v>
+        <v>1.807838993990059</v>
       </c>
       <c r="O12">
-        <v>2.109304013501088</v>
+        <v>3.688037315218565</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.439581878436144</v>
+        <v>0.5399643061044515</v>
       </c>
       <c r="C13">
-        <v>0.1578095285155712</v>
+        <v>0.0470428826366458</v>
       </c>
       <c r="D13">
-        <v>0.323292681604741</v>
+        <v>0.2682773671737522</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.0246966508725</v>
+        <v>1.589975952146048</v>
       </c>
       <c r="G13">
-        <v>0.0007979929086501782</v>
+        <v>0.002461551043562765</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2738116408335145</v>
+        <v>0.3096420248173501</v>
       </c>
       <c r="K13">
-        <v>1.444839118832249</v>
+        <v>0.4958234269299453</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6633407614246423</v>
+        <v>0.3566383717956398</v>
       </c>
       <c r="N13">
-        <v>0.705859653854394</v>
+        <v>1.808842441926616</v>
       </c>
       <c r="O13">
-        <v>2.105196930471124</v>
+        <v>3.688302830720943</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.41384782289677</v>
+        <v>0.532721150396668</v>
       </c>
       <c r="C14">
-        <v>0.1552820378913395</v>
+        <v>0.04627213611684056</v>
       </c>
       <c r="D14">
-        <v>0.3180889515999468</v>
+        <v>0.2670731795643064</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.015580896672319</v>
+        <v>1.589412609898545</v>
       </c>
       <c r="G14">
-        <v>0.000798691954422118</v>
+        <v>0.002461968680199719</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.27014531812857</v>
+        <v>0.3090250170842239</v>
       </c>
       <c r="K14">
-        <v>1.419137330434836</v>
+        <v>0.4884545821107338</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6516996621101541</v>
+        <v>0.3536478954966</v>
       </c>
       <c r="N14">
-        <v>0.713655833170642</v>
+        <v>1.812129805834168</v>
       </c>
       <c r="O14">
-        <v>2.091932177705786</v>
+        <v>3.689214220566527</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.398100284462515</v>
+        <v>0.5282862911243171</v>
       </c>
       <c r="C15">
-        <v>0.1537346239198456</v>
+        <v>0.0457998018143968</v>
       </c>
       <c r="D15">
-        <v>0.314907258815353</v>
+        <v>0.2663375420016934</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.01003851825574</v>
+        <v>1.589082304339783</v>
       </c>
       <c r="G15">
-        <v>0.0007991213431965311</v>
+        <v>0.002462226013056542</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2679086130901283</v>
+        <v>0.3086499521824351</v>
       </c>
       <c r="K15">
-        <v>1.403407554480992</v>
+        <v>0.483941731468633</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.644579884369314</v>
+        <v>0.3518185558299578</v>
       </c>
       <c r="N15">
-        <v>0.7184592610655871</v>
+        <v>1.814154861300856</v>
       </c>
       <c r="O15">
-        <v>2.083905531855891</v>
+        <v>3.689807427330749</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.308079658478647</v>
+        <v>0.5028996003825625</v>
       </c>
       <c r="C16">
-        <v>0.14487741841846</v>
+        <v>0.04308955957992566</v>
       </c>
       <c r="D16">
-        <v>0.2967591125763107</v>
+        <v>0.2621520599861782</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9788927677536066</v>
+        <v>1.587415748471969</v>
       </c>
       <c r="G16">
-        <v>0.0008016007570445772</v>
+        <v>0.002463723996446204</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2552247999367836</v>
+        <v>0.3065446221963555</v>
       </c>
       <c r="K16">
-        <v>1.313458488675536</v>
+        <v>0.4580927232212559</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6039366431054916</v>
+        <v>0.341372489155475</v>
       </c>
       <c r="N16">
-        <v>0.746408377930365</v>
+        <v>1.825935099028856</v>
       </c>
       <c r="O16">
-        <v>2.039376238783547</v>
+        <v>3.693742683176595</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.253039830771087</v>
+        <v>0.4873508028592539</v>
       </c>
       <c r="C17">
-        <v>0.1394519782989931</v>
+        <v>0.04142384397347598</v>
       </c>
       <c r="D17">
-        <v>0.2856981690025719</v>
+        <v>0.2596114070408788</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9603165184582707</v>
+        <v>1.586595397092879</v>
       </c>
       <c r="G17">
-        <v>0.0008031388790501055</v>
+        <v>0.002464663806500723</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2475583824258649</v>
+        <v>0.3052923718583997</v>
       </c>
       <c r="K17">
-        <v>1.258436079252192</v>
+        <v>0.4422465794235109</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5791361245490165</v>
+        <v>0.3349974668311262</v>
       </c>
       <c r="N17">
-        <v>0.7639237108620538</v>
+        <v>1.83331842404554</v>
       </c>
       <c r="O17">
-        <v>2.013326597322617</v>
+        <v>3.696635045914888</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.221445189271407</v>
+        <v>0.4784169348648959</v>
       </c>
       <c r="C18">
-        <v>0.1363339836338042</v>
+        <v>0.04046465622596429</v>
       </c>
       <c r="D18">
-        <v>0.2793614998988545</v>
+        <v>0.2581600515916165</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9498198335456891</v>
+        <v>1.58619783732388</v>
       </c>
       <c r="G18">
-        <v>0.0008040299763444561</v>
+        <v>0.002465212038413666</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2431891806073736</v>
+        <v>0.3045865638900267</v>
       </c>
       <c r="K18">
-        <v>1.226841918037991</v>
+        <v>0.4331366381674684</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5649173913152907</v>
+        <v>0.3313430244795512</v>
       </c>
       <c r="N18">
-        <v>0.7741308819211001</v>
+        <v>1.837622626819927</v>
       </c>
       <c r="O18">
-        <v>1.998792984289906</v>
+        <v>3.698474429690634</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.210758099167492</v>
+        <v>0.4753937083664823</v>
       </c>
       <c r="C19">
-        <v>0.1352786871633498</v>
+        <v>0.04013970223009267</v>
       </c>
       <c r="D19">
-        <v>0.2772202366127061</v>
+        <v>0.2576703618585015</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9462974452461452</v>
+        <v>1.586075992719401</v>
       </c>
       <c r="G19">
-        <v>0.0008043327997776882</v>
+        <v>0.002465398980425063</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2417165994800712</v>
+        <v>0.3043500727700064</v>
       </c>
       <c r="K19">
-        <v>1.216153370555048</v>
+        <v>0.43005292917681</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5601107795133444</v>
+        <v>0.330107811993706</v>
       </c>
       <c r="N19">
-        <v>0.7776093918162621</v>
+        <v>1.839089831845981</v>
       </c>
       <c r="O19">
-        <v>1.993947828894676</v>
+        <v>3.699127405733776</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.258892299861429</v>
+        <v>0.4890050307568856</v>
       </c>
       <c r="C20">
-        <v>0.1400292497423123</v>
+        <v>0.04160127771046973</v>
       </c>
       <c r="D20">
-        <v>0.2868729788524149</v>
+        <v>0.2598808337949521</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9622743888606919</v>
+        <v>1.586675037627373</v>
       </c>
       <c r="G20">
-        <v>0.0008029744828944585</v>
+        <v>0.002464562968021222</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2483702723192351</v>
+        <v>0.3054241804106255</v>
       </c>
       <c r="K20">
-        <v>1.264287685647616</v>
+        <v>0.4439329826970777</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5817713699320564</v>
+        <v>0.3356748270801191</v>
       </c>
       <c r="N20">
-        <v>0.7620453624151828</v>
+        <v>1.832526504139247</v>
       </c>
       <c r="O20">
-        <v>2.016052746493898</v>
+        <v>3.696308957819781</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.421403316908652</v>
+        <v>0.5348482701696753</v>
       </c>
       <c r="C21">
-        <v>0.1560242649149757</v>
+        <v>0.04649857103295574</v>
       </c>
       <c r="D21">
-        <v>0.3196162089128336</v>
+        <v>0.2674264699557369</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.01824976878207</v>
+        <v>1.589575001878458</v>
       </c>
       <c r="G21">
-        <v>0.0007984863778267618</v>
+        <v>0.002461845693847483</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2712203146385264</v>
+        <v>0.3092056491320676</v>
       </c>
       <c r="K21">
-        <v>1.426683765134783</v>
+        <v>0.4906188288685485</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6551166812716644</v>
+        <v>0.3545257682776324</v>
       </c>
       <c r="N21">
-        <v>0.7113600446891626</v>
+        <v>1.811161841078292</v>
       </c>
       <c r="O21">
-        <v>2.095807753811613</v>
+        <v>3.688939239038689</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.528285024336355</v>
+        <v>0.5648896974727222</v>
       </c>
       <c r="C22">
-        <v>0.1665101987053816</v>
+        <v>0.04968899271192129</v>
       </c>
       <c r="D22">
-        <v>0.341269265585936</v>
+        <v>0.2724458982068398</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.056661238581611</v>
+        <v>1.592130930933649</v>
       </c>
       <c r="G22">
-        <v>0.0007956073473769683</v>
+        <v>0.002460137804858532</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2865530145270867</v>
+        <v>0.3118055460638089</v>
       </c>
       <c r="K22">
-        <v>1.533401269849378</v>
+        <v>0.5211660439026389</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.703524405301863</v>
+        <v>0.3669541385168955</v>
       </c>
       <c r="N22">
-        <v>0.6794813246756002</v>
+        <v>1.797711239535181</v>
       </c>
       <c r="O22">
-        <v>2.152291583876377</v>
+        <v>3.685687254678015</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.471173157472435</v>
+        <v>0.5488488463540477</v>
       </c>
       <c r="C23">
-        <v>0.1609102315678541</v>
+        <v>0.04798715820857069</v>
       </c>
       <c r="D23">
-        <v>0.3296880072530968</v>
+        <v>0.2697589282075796</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.035985193814199</v>
+        <v>1.590706377090171</v>
       </c>
       <c r="G23">
-        <v>0.0007971391245739424</v>
+        <v>0.002461043132331864</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2783311562569111</v>
+        <v>0.3104061859513791</v>
       </c>
       <c r="K23">
-        <v>1.476385395824593</v>
+        <v>0.5048593509829402</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6776418499873316</v>
+        <v>0.3603110497484181</v>
       </c>
       <c r="N23">
-        <v>0.6963782477960327</v>
+        <v>1.80484317406336</v>
       </c>
       <c r="O23">
-        <v>2.12172821547685</v>
+        <v>3.687279776417711</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.256246248765734</v>
+        <v>0.4882571376452347</v>
       </c>
       <c r="C24">
-        <v>0.1397682618005973</v>
+        <v>0.04152106472947992</v>
       </c>
       <c r="D24">
-        <v>0.2863417778082749</v>
+        <v>0.2597589969841607</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9613886671781557</v>
+        <v>1.586638801404774</v>
       </c>
       <c r="G24">
-        <v>0.0008030487851858454</v>
+        <v>0.002464608532313951</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2480030979597529</v>
+        <v>0.305364545756845</v>
       </c>
       <c r="K24">
-        <v>1.261642054226087</v>
+        <v>0.4431705590617696</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5805798534153936</v>
+        <v>0.3353685593458522</v>
       </c>
       <c r="N24">
-        <v>0.7628941365597024</v>
+        <v>1.832884346005517</v>
       </c>
       <c r="O24">
-        <v>2.014818879491173</v>
+        <v>3.69645583236877</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.026757257446292</v>
+        <v>0.4232598877458429</v>
       </c>
       <c r="C25">
-        <v>0.1170570412494243</v>
+        <v>0.03450399110559488</v>
       </c>
       <c r="D25">
-        <v>0.2405384014562912</v>
+        <v>0.2493536927101303</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8880286448557371</v>
+        <v>1.58509175246796</v>
       </c>
       <c r="G25">
-        <v>0.0008096698811652852</v>
+        <v>0.002468748165417864</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2168106702864989</v>
+        <v>0.3004789947328632</v>
       </c>
       <c r="K25">
-        <v>1.031988738774231</v>
+        <v>0.3767969246239318</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4776040137719164</v>
+        <v>0.3089350609703772</v>
       </c>
       <c r="N25">
-        <v>0.8396876981048766</v>
+        <v>1.865329898336183</v>
       </c>
       <c r="O25">
-        <v>1.916502723956228</v>
+        <v>3.713074177729084</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_121/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_121/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3757192674132455</v>
+        <v>0.8592164034453731</v>
       </c>
       <c r="C2">
-        <v>0.02930152855844881</v>
+        <v>0.1003669190394021</v>
       </c>
       <c r="D2">
-        <v>0.2420222888857637</v>
+        <v>0.2074863493596979</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.586398145579913</v>
+        <v>0.8393503459406162</v>
       </c>
       <c r="G2">
-        <v>0.002472051365649399</v>
+        <v>0.0008147722433401409</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2973570291902163</v>
+        <v>0.1949519885653999</v>
       </c>
       <c r="K2">
-        <v>0.328076540996932</v>
+        <v>0.8640370523024785</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2898795205865525</v>
+        <v>0.4029342763911998</v>
       </c>
       <c r="N2">
-        <v>1.891113143744201</v>
+        <v>0.9002663989265134</v>
       </c>
       <c r="O2">
-        <v>3.731092495176853</v>
+        <v>1.8569701928744</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3437020739106345</v>
+        <v>0.7462987198147175</v>
       </c>
       <c r="C3">
-        <v>0.02575381342566629</v>
+        <v>0.08905408524744018</v>
       </c>
       <c r="D3">
-        <v>0.2372607916900762</v>
+        <v>0.1854392856872096</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.588810574898332</v>
+        <v>0.809334727930441</v>
       </c>
       <c r="G3">
-        <v>0.002474450459123423</v>
+        <v>0.0008183790112030597</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2955377707892382</v>
+        <v>0.1807378526566197</v>
       </c>
       <c r="K3">
-        <v>0.2951558770172937</v>
+        <v>0.7506707491204736</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2772209927184832</v>
+        <v>0.3528976765485439</v>
       </c>
       <c r="N3">
-        <v>1.909769330211154</v>
+        <v>0.943699308307214</v>
       </c>
       <c r="O3">
-        <v>3.746912369428998</v>
+        <v>1.8238353616957</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3241446689584393</v>
+        <v>0.6771953478773867</v>
       </c>
       <c r="C4">
-        <v>0.02356485319731405</v>
+        <v>0.08210061241568667</v>
       </c>
       <c r="D4">
-        <v>0.2344398604698057</v>
+        <v>0.1720558157471004</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.591045768473869</v>
+        <v>0.7922631229782482</v>
       </c>
       <c r="G4">
-        <v>0.00247600309385297</v>
+        <v>0.000820669191382711</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2945670943208114</v>
+        <v>0.1722781049392523</v>
       </c>
       <c r="K4">
-        <v>0.2749924140743332</v>
+        <v>0.6812113982777674</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2695754061435309</v>
+        <v>0.3224094981666425</v>
       </c>
       <c r="N4">
-        <v>1.921808005209301</v>
+        <v>0.9714970357790866</v>
       </c>
       <c r="O4">
-        <v>3.758406694073443</v>
+        <v>1.806798511609372</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3162007860394738</v>
+        <v>0.6490818260396622</v>
       </c>
       <c r="C5">
-        <v>0.02267020060249081</v>
+        <v>0.0792643161137363</v>
       </c>
       <c r="D5">
-        <v>0.2333162290993585</v>
+        <v>0.16663776569942</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.59214637645308</v>
+        <v>0.7856326027329601</v>
       </c>
       <c r="G5">
-        <v>0.002476655875273182</v>
+        <v>0.0008216217744428483</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2942083735783783</v>
+        <v>0.1688941423937322</v>
       </c>
       <c r="K5">
-        <v>0.2667886434580993</v>
+        <v>0.652933061106765</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2664918361548061</v>
+        <v>0.3100380908171374</v>
       </c>
       <c r="N5">
-        <v>1.926860653544052</v>
+        <v>0.983102663856906</v>
       </c>
       <c r="O5">
-        <v>3.763538740710402</v>
+        <v>1.800652811387806</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3148832890013011</v>
+        <v>0.6444161104193711</v>
       </c>
       <c r="C6">
-        <v>0.02252148646562091</v>
+        <v>0.07879316431468908</v>
       </c>
       <c r="D6">
-        <v>0.2331312197529201</v>
+        <v>0.1657401874750661</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.592340596659724</v>
+        <v>0.7845508863104129</v>
       </c>
       <c r="G6">
-        <v>0.002476765482952777</v>
+        <v>0.000821781125442402</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2941510342330602</v>
+        <v>0.168335960385825</v>
       </c>
       <c r="K6">
-        <v>0.265427212037153</v>
+        <v>0.6482387994817742</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2659817539759786</v>
+        <v>0.3079868402934025</v>
       </c>
       <c r="N6">
-        <v>1.927708508193244</v>
+        <v>0.9850463724270018</v>
       </c>
       <c r="O6">
-        <v>3.764417978278843</v>
+        <v>1.799679467747339</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3240374294363164</v>
+        <v>0.6768160240262659</v>
       </c>
       <c r="C7">
-        <v>0.02355279820453404</v>
+        <v>0.08206237315111764</v>
       </c>
       <c r="D7">
-        <v>0.2344246016852907</v>
+        <v>0.1719826045626718</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.591059843161013</v>
+        <v>0.7921723998750352</v>
       </c>
       <c r="G7">
-        <v>0.002476011815953914</v>
+        <v>0.0008206819597375066</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2945621072848894</v>
+        <v>0.1722322157145868</v>
       </c>
       <c r="K7">
-        <v>0.2748817219152357</v>
+        <v>0.6808299309907255</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2695336899521408</v>
+        <v>0.3222424473248822</v>
       </c>
       <c r="N7">
-        <v>1.921875552624334</v>
+        <v>0.9716524364635708</v>
       </c>
       <c r="O7">
-        <v>3.758474092380766</v>
+        <v>1.806712446608117</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3646589781525904</v>
+        <v>0.8202282406325594</v>
       </c>
       <c r="C8">
-        <v>0.02808051201088801</v>
+        <v>0.09646724634990278</v>
       </c>
       <c r="D8">
-        <v>0.2403592839521167</v>
+        <v>0.1998509381148637</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.587073561752497</v>
+        <v>0.8287096980502042</v>
       </c>
       <c r="G8">
-        <v>0.002472862091322307</v>
+        <v>0.0008160003506323833</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2966993928219139</v>
+        <v>0.1899929743371374</v>
       </c>
       <c r="K8">
-        <v>0.3167153821872262</v>
+        <v>0.8249112206570999</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2854886483864902</v>
+        <v>0.3856291480820744</v>
       </c>
       <c r="N8">
-        <v>1.897424659926056</v>
+        <v>0.9150037387289682</v>
       </c>
       <c r="O8">
-        <v>3.736177688758573</v>
+        <v>1.844837187297685</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4451056395042201</v>
+        <v>1.103801449320258</v>
       </c>
       <c r="C9">
-        <v>0.03687331581217279</v>
+        <v>0.1246993016858511</v>
       </c>
       <c r="D9">
-        <v>0.2528076325190369</v>
+        <v>0.2558534787560802</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.585233192396188</v>
+        <v>0.9118616487411941</v>
       </c>
       <c r="G9">
-        <v>0.002467314249548926</v>
+        <v>0.0008074052275475181</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3020508801079558</v>
+        <v>0.2271329586193929</v>
       </c>
       <c r="K9">
-        <v>0.3991321295707166</v>
+        <v>1.109134743008354</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3177761352391713</v>
+        <v>0.5120918090640814</v>
       </c>
       <c r="N9">
-        <v>1.854106567357467</v>
+        <v>0.8131732642618328</v>
       </c>
       <c r="O9">
-        <v>3.706578236069276</v>
+        <v>1.947510484356911</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5046750870809262</v>
+        <v>1.314368965299394</v>
       </c>
       <c r="C10">
-        <v>0.04327947746035932</v>
+        <v>0.1454968783337023</v>
       </c>
       <c r="D10">
-        <v>0.2624433132386059</v>
+        <v>0.2980247634975797</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.587519419146417</v>
+        <v>0.9810384168775528</v>
       </c>
       <c r="G10">
-        <v>0.002463617796766438</v>
+        <v>0.0008014261056236956</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3066894704071075</v>
+        <v>0.2561051859348566</v>
       </c>
       <c r="K10">
-        <v>0.4599014553843404</v>
+        <v>1.319744501510741</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3421015858874554</v>
+        <v>0.6067729802825141</v>
       </c>
       <c r="N10">
-        <v>1.825100404069672</v>
+        <v>0.744427965446155</v>
       </c>
       <c r="O10">
-        <v>3.693436459953773</v>
+        <v>2.042410761449474</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5318729635109207</v>
+        <v>1.410835513803931</v>
       </c>
       <c r="C11">
-        <v>0.04618182493973677</v>
+        <v>0.154986081554469</v>
       </c>
       <c r="D11">
-        <v>0.2669323866935827</v>
+        <v>0.3174801766261055</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.589348569943468</v>
+        <v>1.014518590180046</v>
       </c>
       <c r="G11">
-        <v>0.002462017800038155</v>
+        <v>0.0007987739950818032</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3089531229355487</v>
+        <v>0.2697170602035186</v>
       </c>
       <c r="K11">
-        <v>0.4875915403929127</v>
+        <v>1.41612853644196</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3532979264869169</v>
+        <v>0.6503375121673187</v>
       </c>
       <c r="N11">
-        <v>1.81251637930111</v>
+        <v>0.7145727383357938</v>
       </c>
       <c r="O11">
-        <v>3.689325586528696</v>
+        <v>2.090391434612684</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5421860114604158</v>
+        <v>1.447479048537872</v>
       </c>
       <c r="C12">
-        <v>0.04727912763763698</v>
+        <v>0.1585848514653776</v>
       </c>
       <c r="D12">
-        <v>0.2686473941411975</v>
+        <v>0.3248906444432436</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.590154580148592</v>
+        <v>1.027508496275459</v>
       </c>
       <c r="G12">
-        <v>0.002461423587654051</v>
+        <v>0.0007977790343632381</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.309832365434886</v>
+        <v>0.2749395046657099</v>
       </c>
       <c r="K12">
-        <v>0.4980832725769915</v>
+        <v>1.4527255913695</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3575563150234018</v>
+        <v>0.6669146708442639</v>
       </c>
       <c r="N12">
-        <v>1.807838993990059</v>
+        <v>0.7034803418433277</v>
       </c>
       <c r="O12">
-        <v>3.688037315218565</v>
+        <v>2.109304013501088</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5399643061044515</v>
+        <v>1.439581878435945</v>
       </c>
       <c r="C13">
-        <v>0.0470428826366458</v>
+        <v>0.1578095285153296</v>
       </c>
       <c r="D13">
-        <v>0.2682773671737522</v>
+        <v>0.3232926816047552</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.589975952146048</v>
+        <v>1.024696650872485</v>
       </c>
       <c r="G13">
-        <v>0.002461551043562765</v>
+        <v>0.000797992908620865</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3096420248173501</v>
+        <v>0.2738116408335287</v>
       </c>
       <c r="K13">
-        <v>0.4958234269299453</v>
+        <v>1.444839118832306</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3566383717956398</v>
+        <v>0.6633407614246494</v>
       </c>
       <c r="N13">
-        <v>1.808842441926616</v>
+        <v>0.70585965385437</v>
       </c>
       <c r="O13">
-        <v>3.688302830720943</v>
+        <v>2.105196930471038</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.532721150396668</v>
+        <v>1.413847822896969</v>
       </c>
       <c r="C14">
-        <v>0.04627213611684056</v>
+        <v>0.1552820378915811</v>
       </c>
       <c r="D14">
-        <v>0.2670731795643064</v>
+        <v>0.3180889516002594</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.589412609898545</v>
+        <v>1.015580896672333</v>
       </c>
       <c r="G14">
-        <v>0.002461968680199719</v>
+        <v>0.0007986919544501465</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3090250170842239</v>
+        <v>0.2701453181285558</v>
       </c>
       <c r="K14">
-        <v>0.4884545821107338</v>
+        <v>1.419137330434751</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3536478954966</v>
+        <v>0.6516996621101327</v>
       </c>
       <c r="N14">
-        <v>1.812129805834168</v>
+        <v>0.7136558331706411</v>
       </c>
       <c r="O14">
-        <v>3.689214220566527</v>
+        <v>2.091932177705701</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5282862911243171</v>
+        <v>1.39810028446243</v>
       </c>
       <c r="C15">
-        <v>0.0457998018143968</v>
+        <v>0.1537346239196182</v>
       </c>
       <c r="D15">
-        <v>0.2663375420016934</v>
+        <v>0.3149072588153814</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.589082304339783</v>
+        <v>1.010038518255755</v>
       </c>
       <c r="G15">
-        <v>0.002462226013056542</v>
+        <v>0.0007991213431987419</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3086499521824351</v>
+        <v>0.2679086130900856</v>
       </c>
       <c r="K15">
-        <v>0.483941731468633</v>
+        <v>1.403407554480935</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3518185558299578</v>
+        <v>0.6445798843693211</v>
       </c>
       <c r="N15">
-        <v>1.814154861300856</v>
+        <v>0.7184592610656022</v>
       </c>
       <c r="O15">
-        <v>3.689807427330749</v>
+        <v>2.083905531855891</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5028996003825625</v>
+        <v>1.308079658478476</v>
       </c>
       <c r="C16">
-        <v>0.04308955957992566</v>
+        <v>0.1448774184183179</v>
       </c>
       <c r="D16">
-        <v>0.2621520599861782</v>
+        <v>0.2967591125764955</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.587415748471969</v>
+        <v>0.9788927677535924</v>
       </c>
       <c r="G16">
-        <v>0.002463723996446204</v>
+        <v>0.0008016007569636591</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3065446221963555</v>
+        <v>0.2552247999368262</v>
       </c>
       <c r="K16">
-        <v>0.4580927232212559</v>
+        <v>1.313458488675479</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.341372489155475</v>
+        <v>0.6039366431054916</v>
       </c>
       <c r="N16">
-        <v>1.825935099028856</v>
+        <v>0.7464083779303508</v>
       </c>
       <c r="O16">
-        <v>3.693742683176595</v>
+        <v>2.039376238783461</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4873508028592539</v>
+        <v>1.25303983077103</v>
       </c>
       <c r="C17">
-        <v>0.04142384397347598</v>
+        <v>0.1394519782989931</v>
       </c>
       <c r="D17">
-        <v>0.2596114070408788</v>
+        <v>0.2856981690025577</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.586595397092879</v>
+        <v>0.9603165184582707</v>
       </c>
       <c r="G17">
-        <v>0.002464663806500723</v>
+        <v>0.0008031388790796929</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3052923718583997</v>
+        <v>0.2475583824258081</v>
       </c>
       <c r="K17">
-        <v>0.4422465794235109</v>
+        <v>1.258436079252135</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3349974668311262</v>
+        <v>0.5791361245490165</v>
       </c>
       <c r="N17">
-        <v>1.83331842404554</v>
+        <v>0.7639237108620636</v>
       </c>
       <c r="O17">
-        <v>3.696635045914888</v>
+        <v>2.013326597322589</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4784169348648959</v>
+        <v>1.221445189271378</v>
       </c>
       <c r="C18">
-        <v>0.04046465622596429</v>
+        <v>0.1363339836338895</v>
       </c>
       <c r="D18">
-        <v>0.2581600515916165</v>
+        <v>0.2793614998987977</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.58619783732388</v>
+        <v>0.9498198335456891</v>
       </c>
       <c r="G18">
-        <v>0.002465212038413666</v>
+        <v>0.0008040299763451032</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3045865638900267</v>
+        <v>0.2431891806073878</v>
       </c>
       <c r="K18">
-        <v>0.4331366381674684</v>
+        <v>1.226841918037934</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3313430244795512</v>
+        <v>0.5649173913152907</v>
       </c>
       <c r="N18">
-        <v>1.837622626819927</v>
+        <v>0.774130881921093</v>
       </c>
       <c r="O18">
-        <v>3.698474429690634</v>
+        <v>1.998792984289878</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4753937083664823</v>
+        <v>1.210758099167492</v>
       </c>
       <c r="C19">
-        <v>0.04013970223009267</v>
+        <v>0.1352786871634493</v>
       </c>
       <c r="D19">
-        <v>0.2576703618585015</v>
+        <v>0.2772202366125924</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.586075992719401</v>
+        <v>0.946297445246131</v>
       </c>
       <c r="G19">
-        <v>0.002465398980425063</v>
+        <v>0.0008043327998077135</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3043500727700064</v>
+        <v>0.2417165994800143</v>
       </c>
       <c r="K19">
-        <v>0.43005292917681</v>
+        <v>1.216153370555048</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.330107811993706</v>
+        <v>0.5601107795133444</v>
       </c>
       <c r="N19">
-        <v>1.839089831845981</v>
+        <v>0.7776093918162665</v>
       </c>
       <c r="O19">
-        <v>3.699127405733776</v>
+        <v>1.993947828894676</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4890050307568856</v>
+        <v>1.258892299861316</v>
       </c>
       <c r="C20">
-        <v>0.04160127771046973</v>
+        <v>0.1400292497418718</v>
       </c>
       <c r="D20">
-        <v>0.2598808337949521</v>
+        <v>0.2868729788525854</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.586675037627373</v>
+        <v>0.9622743888606919</v>
       </c>
       <c r="G20">
-        <v>0.002464562968021222</v>
+        <v>0.0008029744828397162</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3054241804106255</v>
+        <v>0.2483702723191783</v>
       </c>
       <c r="K20">
-        <v>0.4439329826970777</v>
+        <v>1.264287685647531</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3356748270801191</v>
+        <v>0.5817713699320564</v>
       </c>
       <c r="N20">
-        <v>1.832526504139247</v>
+        <v>0.7620453624152246</v>
       </c>
       <c r="O20">
-        <v>3.696308957819781</v>
+        <v>2.016052746493841</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5348482701696753</v>
+        <v>1.421403316908709</v>
       </c>
       <c r="C21">
-        <v>0.04649857103295574</v>
+        <v>0.156024264915203</v>
       </c>
       <c r="D21">
-        <v>0.2674264699557369</v>
+        <v>0.3196162089127341</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.589575001878458</v>
+        <v>1.01824976878207</v>
       </c>
       <c r="G21">
-        <v>0.002461845693847483</v>
+        <v>0.000798486377857894</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3092056491320676</v>
+        <v>0.2712203146384979</v>
       </c>
       <c r="K21">
-        <v>0.4906188288685485</v>
+        <v>1.426683765134811</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3545257682776324</v>
+        <v>0.6551166812716929</v>
       </c>
       <c r="N21">
-        <v>1.811161841078292</v>
+        <v>0.7113600446891599</v>
       </c>
       <c r="O21">
-        <v>3.688939239038689</v>
+        <v>2.095807753811613</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5648896974727222</v>
+        <v>1.528285024336327</v>
       </c>
       <c r="C22">
-        <v>0.04968899271192129</v>
+        <v>0.1665101987052822</v>
       </c>
       <c r="D22">
-        <v>0.2724458982068398</v>
+        <v>0.3412692655858223</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.592130930933649</v>
+        <v>1.056661238581597</v>
       </c>
       <c r="G22">
-        <v>0.002460137804858532</v>
+        <v>0.0007956073473762672</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3118055460638089</v>
+        <v>0.2865530145270156</v>
       </c>
       <c r="K22">
-        <v>0.5211660439026389</v>
+        <v>1.533401269849406</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3669541385168955</v>
+        <v>0.7035244053018772</v>
       </c>
       <c r="N22">
-        <v>1.797711239535181</v>
+        <v>0.6794813246755291</v>
       </c>
       <c r="O22">
-        <v>3.685687254678015</v>
+        <v>2.152291583876348</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5488488463540477</v>
+        <v>1.471173157472492</v>
       </c>
       <c r="C23">
-        <v>0.04798715820857069</v>
+        <v>0.1609102315678399</v>
       </c>
       <c r="D23">
-        <v>0.2697589282075796</v>
+        <v>0.329688007253111</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.590706377090171</v>
+        <v>1.035985193814184</v>
       </c>
       <c r="G23">
-        <v>0.002461043132331864</v>
+        <v>0.0007971391246033174</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3104061859513791</v>
+        <v>0.2783311562569679</v>
       </c>
       <c r="K23">
-        <v>0.5048593509829402</v>
+        <v>1.476385395824735</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3603110497484181</v>
+        <v>0.6776418499873103</v>
       </c>
       <c r="N23">
-        <v>1.80484317406336</v>
+        <v>0.6963782477960212</v>
       </c>
       <c r="O23">
-        <v>3.687279776417711</v>
+        <v>2.121728215476935</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4882571376452347</v>
+        <v>1.256246248765734</v>
       </c>
       <c r="C24">
-        <v>0.04152106472947992</v>
+        <v>0.1397682618003699</v>
       </c>
       <c r="D24">
-        <v>0.2597589969841607</v>
+        <v>0.2863417778082749</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.586638801404774</v>
+        <v>0.9613886671781557</v>
       </c>
       <c r="G24">
-        <v>0.002464608532313951</v>
+        <v>0.0008030487852151456</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.305364545756845</v>
+        <v>0.2480030979596961</v>
       </c>
       <c r="K24">
-        <v>0.4431705590617696</v>
+        <v>1.261642054225916</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3353685593458522</v>
+        <v>0.5805798534154007</v>
       </c>
       <c r="N24">
-        <v>1.832884346005517</v>
+        <v>0.7628941365597042</v>
       </c>
       <c r="O24">
-        <v>3.69645583236877</v>
+        <v>2.014818879491116</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4232598877458429</v>
+        <v>1.026757257446405</v>
       </c>
       <c r="C25">
-        <v>0.03450399110559488</v>
+        <v>0.1170570412496375</v>
       </c>
       <c r="D25">
-        <v>0.2493536927101303</v>
+        <v>0.2405384014564191</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.58509175246796</v>
+        <v>0.8880286448557229</v>
       </c>
       <c r="G25">
-        <v>0.002468748165417864</v>
+        <v>0.0008096698811058123</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3004789947328632</v>
+        <v>0.2168106702866268</v>
       </c>
       <c r="K25">
-        <v>0.3767969246239318</v>
+        <v>1.031988738774345</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3089350609703772</v>
+        <v>0.4776040137719164</v>
       </c>
       <c r="N25">
-        <v>1.865329898336183</v>
+        <v>0.8396876981049264</v>
       </c>
       <c r="O25">
-        <v>3.713074177729084</v>
+        <v>1.916502723956256</v>
       </c>
     </row>
   </sheetData>
